--- a/bcps_accept_rate_comparison.xlsx
+++ b/bcps_accept_rate_comparison.xlsx
@@ -475,22 +475,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3175000000000001</v>
+        <v>0.3039357142857143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2975562770562772</v>
+        <v>0.2879168063418064</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2910657142857143</v>
+        <v>0.2766365873015874</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3175000000000001</v>
+        <v>0.2809890467032966</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3175000000000001</v>
+        <v>0.2804856984126984</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3175000000000001</v>
+        <v>0.2782008256854256</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8739331779331779</v>
+        <v>0.8820145687645687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8638245301787246</v>
+        <v>0.8747276045752076</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8651161199052946</v>
+        <v>0.8742590662425229</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8739331779331779</v>
+        <v>0.866778155872703</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8739331779331779</v>
+        <v>0.8703229079848375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8739331779331779</v>
+        <v>0.8696014307344601</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +521,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4792057336454395</v>
+        <v>0.4750870426414541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4421316888192415</v>
+        <v>0.4389994860657784</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4551199663311468</v>
+        <v>0.4462622687388225</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4792057336454395</v>
+        <v>0.4453236698362608</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4792057336454395</v>
+        <v>0.4422617293949503</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4792057336454395</v>
+        <v>0.4392638315937222</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2960026379938144</v>
+        <v>0.3056546439788035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2678507898926567</v>
+        <v>0.2794584629622724</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2755226265745456</v>
+        <v>0.2826094455743878</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2960026379938144</v>
+        <v>0.2844563909626494</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2960026379938144</v>
+        <v>0.2843819809268742</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2960026379938144</v>
+        <v>0.2832815297098935</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2570562123062123</v>
+        <v>0.2660450785325786</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2654300305985803</v>
+        <v>0.2723969388287037</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2710084184838415</v>
+        <v>0.2721970127302368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2570562123062123</v>
+        <v>0.2784259691122195</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2570562123062123</v>
+        <v>0.2794701788402636</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2570562123062123</v>
+        <v>0.2814670045968466</v>
       </c>
     </row>
     <row r="7">
@@ -590,22 +590,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.271561396011396</v>
+        <v>0.2840355265105265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2525315353608927</v>
+        <v>0.2496966987233248</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2484190728244464</v>
+        <v>0.2419640734162108</v>
       </c>
       <c r="E7" t="n">
-        <v>0.271561396011396</v>
+        <v>0.2459197034362425</v>
       </c>
       <c r="F7" t="n">
-        <v>0.271561396011396</v>
+        <v>0.243852089352363</v>
       </c>
       <c r="G7" t="n">
-        <v>0.271561396011396</v>
+        <v>0.2423536347028433</v>
       </c>
     </row>
     <row r="8">
@@ -613,22 +613,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6425959595959596</v>
+        <v>0.6072053705553706</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6018810879809907</v>
+        <v>0.5931578827066842</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6088488717077101</v>
+        <v>0.5859900024401525</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6425959595959596</v>
+        <v>0.5848977762462726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6425959595959596</v>
+        <v>0.5870257161552074</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6425959595959596</v>
+        <v>0.585618346063237</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +636,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9262868520368518</v>
+        <v>0.9288378704628706</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9316246612493571</v>
+        <v>0.9245225101280167</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9285225847518257</v>
+        <v>0.9177803988493549</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9262868520368518</v>
+        <v>0.9223840085295376</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9262868520368518</v>
+        <v>0.9221107323295701</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9262868520368518</v>
+        <v>0.9212936302831484</v>
       </c>
     </row>
     <row r="10">
@@ -659,22 +659,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1627774202921262</v>
+        <v>0.1639875686949215</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1161128004475393</v>
+        <v>0.1232574422194517</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1159416846703469</v>
+        <v>0.1192166244837796</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1627774202921262</v>
+        <v>0.116614945570587</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1627774202921262</v>
+        <v>0.116894045580943</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1627774202921262</v>
+        <v>0.117110036403394</v>
       </c>
     </row>
     <row r="11">
@@ -682,22 +682,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5501156806156807</v>
+        <v>0.5318720538720538</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4921928064260522</v>
+        <v>0.4998666028744397</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5104737012036893</v>
+        <v>0.5071514103584583</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5501156806156807</v>
+        <v>0.5043840062943622</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5501156806156807</v>
+        <v>0.5000187008318311</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5501156806156807</v>
+        <v>0.5063683499400937</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +705,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.323994277019277</v>
+        <v>0.3266591112591113</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3120659518347047</v>
+        <v>0.3295493284721382</v>
       </c>
       <c r="D12" t="n">
-        <v>0.315295242685888</v>
+        <v>0.3325195968492058</v>
       </c>
       <c r="E12" t="n">
-        <v>0.323994277019277</v>
+        <v>0.3272438540223954</v>
       </c>
       <c r="F12" t="n">
-        <v>0.323994277019277</v>
+        <v>0.3247710639609261</v>
       </c>
       <c r="G12" t="n">
-        <v>0.323994277019277</v>
+        <v>0.3246171743962406</v>
       </c>
     </row>
     <row r="13">
@@ -728,22 +728,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3514876401376402</v>
+        <v>0.3497526390276391</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3491018943654398</v>
+        <v>0.3407939112733218</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3494952620014925</v>
+        <v>0.3321606766331536</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3514876401376402</v>
+        <v>0.3318757666343384</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3514876401376402</v>
+        <v>0.3341953097208832</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3514876401376402</v>
+        <v>0.3297263092080632</v>
       </c>
     </row>
     <row r="14">
@@ -751,22 +751,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4918147278647278</v>
+        <v>0.5015723924223924</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5281679707824265</v>
+        <v>0.5200574049885386</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5375718703715147</v>
+        <v>0.5200907436218504</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4918147278647278</v>
+        <v>0.523738593584644</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4918147278647278</v>
+        <v>0.5220435165757967</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4918147278647278</v>
+        <v>0.5221850799598077</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2432373700373701</v>
+        <v>0.2588252698826229</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1889059242317909</v>
+        <v>0.2067957824044537</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1786266471036723</v>
+        <v>0.2087704020436909</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2432373700373701</v>
+        <v>0.2058881592207449</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2432373700373701</v>
+        <v>0.2055338340348204</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2432373700373701</v>
+        <v>0.2045296625097663</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +797,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6305187158520491</v>
+        <v>0.6767371486538152</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5943402008625759</v>
+        <v>0.6457817661490129</v>
       </c>
       <c r="D16" t="n">
-        <v>0.606221839184506</v>
+        <v>0.6570327378807376</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6305187158520491</v>
+        <v>0.649011726880341</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6305187158520491</v>
+        <v>0.6428690885907409</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6305187158520491</v>
+        <v>0.6408852514620266</v>
       </c>
     </row>
     <row r="17">
@@ -820,22 +820,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7016357302827891</v>
+        <v>0.6940126732200261</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6733935348195957</v>
+        <v>0.6766571409873778</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6744623816126283</v>
+        <v>0.684937141784535</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7016357302827891</v>
+        <v>0.6834542011145309</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7016357302827891</v>
+        <v>0.6848393275187141</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7016357302827891</v>
+        <v>0.6832983568191076</v>
       </c>
     </row>
     <row r="18">
@@ -843,22 +843,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1975207046221752</v>
+        <v>0.2048349693607047</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1852257558135026</v>
+        <v>0.1823436814265538</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1766842905812157</v>
+        <v>0.1753184308508152</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1975207046221752</v>
+        <v>0.1727336213588672</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1975207046221752</v>
+        <v>0.1742540997033734</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1975207046221752</v>
+        <v>0.1754836066573411</v>
       </c>
     </row>
     <row r="19">
@@ -866,22 +866,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2808647426647425</v>
+        <v>0.2799565166315166</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2575865884064348</v>
+        <v>0.2547408390933093</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2475982283038886</v>
+        <v>0.2519916971273968</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2808647426647425</v>
+        <v>0.2575668656827412</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2808647426647425</v>
+        <v>0.2577250546152952</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2808647426647425</v>
+        <v>0.258923513932342</v>
       </c>
     </row>
     <row r="20">
@@ -889,22 +889,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2781786710643852</v>
+        <v>0.2697717309145879</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2387461168964184</v>
+        <v>0.2322366169282314</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2479769408223661</v>
+        <v>0.2432534212017815</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2781786710643852</v>
+        <v>0.2420928940937252</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2781786710643852</v>
+        <v>0.2342780349034855</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2781786710643852</v>
+        <v>0.2383530644545595</v>
       </c>
     </row>
     <row r="21">
@@ -912,22 +912,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.482722766122766</v>
+        <v>0.4788924191549194</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4911724574642308</v>
+        <v>0.4888770204732814</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4738610130897742</v>
+        <v>0.4736273290941244</v>
       </c>
       <c r="E21" t="n">
-        <v>0.482722766122766</v>
+        <v>0.4793166463742171</v>
       </c>
       <c r="F21" t="n">
-        <v>0.482722766122766</v>
+        <v>0.4804756241940572</v>
       </c>
       <c r="G21" t="n">
-        <v>0.482722766122766</v>
+        <v>0.4774347918697531</v>
       </c>
     </row>
     <row r="22">
@@ -935,22 +935,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8304077496577495</v>
+        <v>0.826312950937951</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8358790041110638</v>
+        <v>0.8323780477141246</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8200769052931761</v>
+        <v>0.8261902070239374</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8304077496577495</v>
+        <v>0.8321511754189743</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8304077496577495</v>
+        <v>0.8381008457296116</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8304077496577495</v>
+        <v>0.8392982827494307</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +958,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2009346457464105</v>
+        <v>0.1984699868959157</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1512355549099883</v>
+        <v>0.1448044462946805</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1530877042673853</v>
+        <v>0.1472018505781154</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2009346457464105</v>
+        <v>0.1475590165602352</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2009346457464105</v>
+        <v>0.144378930087077</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2009346457464105</v>
+        <v>0.1449112627055645</v>
       </c>
     </row>
     <row r="24">
@@ -981,22 +981,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7143078477078477</v>
+        <v>0.6820604895104894</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7123186921540376</v>
+        <v>0.6780693846692681</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7269951697528128</v>
+        <v>0.6826972629664415</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7143078477078477</v>
+        <v>0.6622751230760399</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7143078477078477</v>
+        <v>0.6652665928026678</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7143078477078477</v>
+        <v>0.6639886680916439</v>
       </c>
     </row>
     <row r="25">
@@ -1004,22 +1004,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5093632277308748</v>
+        <v>0.4920562114900351</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4920166356926621</v>
+        <v>0.4945628244945187</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4871212430192855</v>
+        <v>0.4907311981675279</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5093632277308748</v>
+        <v>0.4872281013663379</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5093632277308748</v>
+        <v>0.4932696512589348</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5093632277308748</v>
+        <v>0.4887783949014809</v>
       </c>
     </row>
     <row r="26">
@@ -1027,22 +1027,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296475448843096</v>
+        <v>0.2909930700018936</v>
       </c>
       <c r="C26" t="n">
-        <v>0.265558638561867</v>
+        <v>0.2567278107064118</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2617053537431339</v>
+        <v>0.2528823164879</v>
       </c>
       <c r="E26" t="n">
-        <v>0.296475448843096</v>
+        <v>0.2469528450543046</v>
       </c>
       <c r="F26" t="n">
-        <v>0.296475448843096</v>
+        <v>0.2529534426011313</v>
       </c>
       <c r="G26" t="n">
-        <v>0.296475448843096</v>
+        <v>0.2517520490063461</v>
       </c>
     </row>
     <row r="27">
@@ -1050,22 +1050,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3079307026307027</v>
+        <v>0.35263825988826</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2852399409094261</v>
+        <v>0.3303361338556951</v>
       </c>
       <c r="D27" t="n">
-        <v>0.273952712304706</v>
+        <v>0.32585253519409</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3079307026307027</v>
+        <v>0.3294476322207379</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3079307026307027</v>
+        <v>0.3295145137739667</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3079307026307027</v>
+        <v>0.3289862411287761</v>
       </c>
     </row>
     <row r="28">
@@ -1073,22 +1073,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2700842786842786</v>
+        <v>0.2574786065786066</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2439309006171003</v>
+        <v>0.2367956725911166</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2547487701666871</v>
+        <v>0.2344318809433301</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2700842786842786</v>
+        <v>0.2320978478871768</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2700842786842786</v>
+        <v>0.227135780741388</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2700842786842786</v>
+        <v>0.2304444418524701</v>
       </c>
     </row>
     <row r="29">
@@ -1096,22 +1096,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6060169904169904</v>
+        <v>0.618383916083916</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6007710011157591</v>
+        <v>0.6010963159396711</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5991234772418214</v>
+        <v>0.5931842979992127</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6060169904169904</v>
+        <v>0.5981237214295065</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6060169904169904</v>
+        <v>0.5965325426158463</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6060169904169904</v>
+        <v>0.5981179236320768</v>
       </c>
     </row>
     <row r="30">
@@ -1119,22 +1119,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7669504367464893</v>
+        <v>0.7932290890639573</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7530146133612127</v>
+        <v>0.7750763519429182</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7583656695387685</v>
+        <v>0.7776953953702451</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7669504367464893</v>
+        <v>0.7789678644818966</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7669504367464893</v>
+        <v>0.7776499138203654</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7669504367464893</v>
+        <v>0.777565793147634</v>
       </c>
     </row>
     <row r="31">
@@ -1142,22 +1142,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1843061956561957</v>
+        <v>0.197402191265978</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1485120015933993</v>
+        <v>0.1609788384847343</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1516817530979061</v>
+        <v>0.1558031669285343</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1843061956561957</v>
+        <v>0.159417366483621</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1843061956561957</v>
+        <v>0.158627086701926</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1843061956561957</v>
+        <v>0.1578704485692546</v>
       </c>
     </row>
     <row r="32">
@@ -1165,22 +1165,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4234631923631921</v>
+        <v>0.415534001184001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4016288897302612</v>
+        <v>0.3900521066631235</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4094694020590606</v>
+        <v>0.3957096872353228</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4234631923631921</v>
+        <v>0.4026813490063635</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4234631923631921</v>
+        <v>0.4001773331510043</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4234631923631921</v>
+        <v>0.3988033841024411</v>
       </c>
     </row>
     <row r="33">
@@ -1188,22 +1188,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2974748316498316</v>
+        <v>0.278905584759156</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2487865049641798</v>
+        <v>0.2341806995930588</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2560845880312979</v>
+        <v>0.2414858277820703</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2974748316498316</v>
+        <v>0.2381154577191273</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2974748316498316</v>
+        <v>0.2343372966651167</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2974748316498316</v>
+        <v>0.2352668365303411</v>
       </c>
     </row>
     <row r="34">
@@ -1211,22 +1211,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3912497104202985</v>
+        <v>0.3743768051120993</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4333409342431656</v>
+        <v>0.4082114636925618</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4146495163223601</v>
+        <v>0.4009069657641184</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3912497104202985</v>
+        <v>0.4032199265810179</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3912497104202985</v>
+        <v>0.4008251558811582</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3912497104202985</v>
+        <v>0.4042393771074304</v>
       </c>
     </row>
     <row r="35">
@@ -1234,22 +1234,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.639164121064121</v>
+        <v>0.6090803770303773</v>
       </c>
       <c r="C35" t="n">
-        <v>0.686227492821792</v>
+        <v>0.6637781246648627</v>
       </c>
       <c r="D35" t="n">
-        <v>0.675133850457779</v>
+        <v>0.6650693920656523</v>
       </c>
       <c r="E35" t="n">
-        <v>0.639164121064121</v>
+        <v>0.6590107406348088</v>
       </c>
       <c r="F35" t="n">
-        <v>0.639164121064121</v>
+        <v>0.6670363357941775</v>
       </c>
       <c r="G35" t="n">
-        <v>0.639164121064121</v>
+        <v>0.6632843271426314</v>
       </c>
     </row>
     <row r="36">
@@ -1257,22 +1257,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2286945276945277</v>
+        <v>0.2270211732711731</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1736811136618788</v>
+        <v>0.1778795814518456</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1735345115261335</v>
+        <v>0.1762137997688794</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2286945276945277</v>
+        <v>0.1752204217232006</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2286945276945277</v>
+        <v>0.1694484118531768</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2286945276945277</v>
+        <v>0.1720161929979262</v>
       </c>
     </row>
     <row r="37">
@@ -1280,22 +1280,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7003905427905426</v>
+        <v>0.713353465053465</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6600329620691788</v>
+        <v>0.6662540007864848</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6450231014474705</v>
+        <v>0.660874900855054</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7003905427905426</v>
+        <v>0.663594054429866</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7003905427905426</v>
+        <v>0.6618501951506964</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7003905427905426</v>
+        <v>0.6670341635010787</v>
       </c>
     </row>
     <row r="38">
@@ -1303,22 +1303,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6119408013555073</v>
+        <v>0.624215361871244</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5942442525306448</v>
+        <v>0.6084455523469693</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5841603186016233</v>
+        <v>0.600253871420016</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6119408013555073</v>
+        <v>0.5953810005557653</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6119408013555073</v>
+        <v>0.596924973830093</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6119408013555073</v>
+        <v>0.5964741802276412</v>
       </c>
     </row>
     <row r="39">
@@ -1326,22 +1326,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2763011720849955</v>
+        <v>0.2819786480268098</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2340263034346503</v>
+        <v>0.2500064680971406</v>
       </c>
       <c r="D39" t="n">
-        <v>0.237221222800792</v>
+        <v>0.2409162663757521</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2763011720849955</v>
+        <v>0.2490653074508385</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2763011720849955</v>
+        <v>0.2474628633303666</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2763011720849955</v>
+        <v>0.2444873015096718</v>
       </c>
     </row>
     <row r="40">
@@ -1349,22 +1349,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3367326784326782</v>
+        <v>0.3155151006401004</v>
       </c>
       <c r="C40" t="n">
-        <v>0.313994106094918</v>
+        <v>0.3000751562535457</v>
       </c>
       <c r="D40" t="n">
-        <v>0.304852167541436</v>
+        <v>0.2874255380962481</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3367326784326782</v>
+        <v>0.2935667178909783</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3367326784326782</v>
+        <v>0.2886909350227467</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3367326784326782</v>
+        <v>0.2944824786219074</v>
       </c>
     </row>
     <row r="41">
@@ -1372,22 +1372,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2643152347652348</v>
+        <v>0.2736760239760239</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2246700735305664</v>
+        <v>0.2208053857395877</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2220367164692357</v>
+        <v>0.2187224390735053</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2643152347652348</v>
+        <v>0.2163809506978099</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2643152347652348</v>
+        <v>0.2187345927960782</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2643152347652348</v>
+        <v>0.2205211713163049</v>
       </c>
     </row>
     <row r="42">
@@ -1395,22 +1395,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5415563584563584</v>
+        <v>0.5624348040848041</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5300053073404027</v>
+        <v>0.5480207220146321</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5266166837609563</v>
+        <v>0.5441743845655553</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5415563584563584</v>
+        <v>0.5506557244833177</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5415563584563584</v>
+        <v>0.5448579518562564</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5415563584563584</v>
+        <v>0.5419798783215013</v>
       </c>
     </row>
     <row r="43">
@@ -1418,22 +1418,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8073587458293341</v>
+        <v>0.8281449517802461</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8135503189523956</v>
+        <v>0.8381630932024676</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8124068228955723</v>
+        <v>0.8427138451375291</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8073587458293341</v>
+        <v>0.8365752666010713</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8073587458293341</v>
+        <v>0.8399846453778572</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8073587458293341</v>
+        <v>0.8398623516147652</v>
       </c>
     </row>
     <row r="44">
@@ -1441,22 +1441,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1867138319197143</v>
+        <v>0.1876285190435925</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1476917029004127</v>
+        <v>0.142959098031898</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1385907535422017</v>
+        <v>0.1317729246544137</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1867138319197143</v>
+        <v>0.1339693010555044</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1867138319197143</v>
+        <v>0.131724066864071</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1867138319197143</v>
+        <v>0.1321113811579641</v>
       </c>
     </row>
     <row r="45">
@@ -1464,22 +1464,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6339927368927368</v>
+        <v>0.5778239778739779</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6035793962775258</v>
+        <v>0.5655669734850158</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6106372548435414</v>
+        <v>0.557835014050115</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6339927368927368</v>
+        <v>0.5475335714129768</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6339927368927368</v>
+        <v>0.5500136796186177</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6339927368927368</v>
+        <v>0.5520274234611273</v>
       </c>
     </row>
     <row r="46">
@@ -1487,22 +1487,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4167497821894881</v>
+        <v>0.3848935803031391</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4013867943983602</v>
+        <v>0.3752956776485533</v>
       </c>
       <c r="D46" t="n">
-        <v>0.386426282864732</v>
+        <v>0.3672174739960201</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4167497821894881</v>
+        <v>0.3699979193117753</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4167497821894881</v>
+        <v>0.3649051940643051</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4167497821894881</v>
+        <v>0.3700322729719911</v>
       </c>
     </row>
     <row r="47">
@@ -1510,22 +1510,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.339308966958967</v>
+        <v>0.3039213721463722</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3175214219628032</v>
+        <v>0.2935115920534065</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3033786153340907</v>
+        <v>0.2762184259622991</v>
       </c>
       <c r="E47" t="n">
-        <v>0.339308966958967</v>
+        <v>0.280366213962824</v>
       </c>
       <c r="F47" t="n">
-        <v>0.339308966958967</v>
+        <v>0.2822810740389676</v>
       </c>
       <c r="G47" t="n">
-        <v>0.339308966958967</v>
+        <v>0.2842614553879071</v>
       </c>
     </row>
     <row r="48">
@@ -1533,22 +1533,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4278808987308987</v>
+        <v>0.4398325757575758</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4080599033120152</v>
+        <v>0.4349719757683585</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4003804277683073</v>
+        <v>0.4206636607932359</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4278808987308987</v>
+        <v>0.4268467683886554</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4278808987308987</v>
+        <v>0.4323903955449523</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4278808987308987</v>
+        <v>0.4314231806114939</v>
       </c>
     </row>
     <row r="49">
@@ -1556,22 +1556,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236653453953454</v>
+        <v>0.2321523282273282</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2058023698033442</v>
+        <v>0.2007389266919144</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2015880378894222</v>
+        <v>0.1956030969566623</v>
       </c>
       <c r="E49" t="n">
-        <v>0.236653453953454</v>
+        <v>0.1943949736003722</v>
       </c>
       <c r="F49" t="n">
-        <v>0.236653453953454</v>
+        <v>0.1940576816733622</v>
       </c>
       <c r="G49" t="n">
-        <v>0.236653453953454</v>
+        <v>0.1949640877256842</v>
       </c>
     </row>
     <row r="50">
@@ -1579,22 +1579,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6438970177970178</v>
+        <v>0.6371572631072633</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6224510404047157</v>
+        <v>0.6216203977276643</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6125121322320733</v>
+        <v>0.6192746930317494</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6438970177970178</v>
+        <v>0.6180404077219448</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6438970177970178</v>
+        <v>0.6212654741342242</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6438970177970178</v>
+        <v>0.6174782664164501</v>
       </c>
     </row>
     <row r="51">
@@ -1602,22 +1602,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7637594175976529</v>
+        <v>0.7658911021168372</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7755658419405951</v>
+        <v>0.7627378061890344</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7712215221880768</v>
+        <v>0.764144345652127</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7637594175976529</v>
+        <v>0.7655948690799154</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7637594175976529</v>
+        <v>0.7631785461766001</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7637594175976529</v>
+        <v>0.7633060675045462</v>
       </c>
     </row>
   </sheetData>

--- a/bcps_accept_rate_comparison.xlsx
+++ b/bcps_accept_rate_comparison.xlsx
@@ -475,22 +475,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3039357142857143</v>
+        <v>0.5336923809523814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2879168063418064</v>
+        <v>0.5246033821733825</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2766365873015874</v>
+        <v>0.519552780663781</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2809890467032966</v>
+        <v>0.5218752366946781</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2804856984126984</v>
+        <v>0.5209606031746037</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2782008256854256</v>
+        <v>0.5204823333333334</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +498,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8820145687645687</v>
+        <v>0.9423415574621458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8747276045752076</v>
+        <v>0.942789415329521</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8742590662425229</v>
+        <v>0.9414977918196666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.866778155872703</v>
+        <v>0.9422518802945162</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8703229079848375</v>
+        <v>0.9415787843453918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8696014307344601</v>
+        <v>0.9414654870014154</v>
       </c>
     </row>
     <row r="4">
@@ -521,22 +521,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4750870426414541</v>
+        <v>0.7228560789646089</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4389994860657784</v>
+        <v>0.711349368708996</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4462622687388225</v>
+        <v>0.7058005937073939</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4453236698362608</v>
+        <v>0.7093152496206329</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4422617293949503</v>
+        <v>0.7069429832163127</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4392638315937222</v>
+        <v>0.7074706309055924</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3056546439788035</v>
+        <v>0.6922201610281987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2794584629622724</v>
+        <v>0.6840576612981994</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2826094455743878</v>
+        <v>0.6757374937146197</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2844563909626494</v>
+        <v>0.6796005202480599</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2843819809268742</v>
+        <v>0.6772981595382641</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2832815297098935</v>
+        <v>0.6783584939420063</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2660450785325786</v>
+        <v>0.6254725551953501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2723969388287037</v>
+        <v>0.6122448152976399</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2721970127302368</v>
+        <v>0.6162004806333298</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2784259691122195</v>
+        <v>0.6124920029746153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2794701788402636</v>
+        <v>0.6121683232283076</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2814670045968466</v>
+        <v>0.6118726154747519</v>
       </c>
     </row>
     <row r="7">
@@ -590,22 +590,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2840355265105265</v>
+        <v>0.6503664847911516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2496966987233248</v>
+        <v>0.6314704675259866</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2419640734162108</v>
+        <v>0.6308624146196009</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2459197034362425</v>
+        <v>0.6309191963548406</v>
       </c>
       <c r="F7" t="n">
-        <v>0.243852089352363</v>
+        <v>0.6276449107772274</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2423536347028433</v>
+        <v>0.6270707843465791</v>
       </c>
     </row>
     <row r="8">
@@ -613,22 +613,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6072053705553706</v>
+        <v>0.8917809858210247</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5931578827066842</v>
+        <v>0.888903514797088</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5859900024401525</v>
+        <v>0.8892033535960856</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5848977762462726</v>
+        <v>0.8873772438213621</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5870257161552074</v>
+        <v>0.8863219593113496</v>
       </c>
       <c r="G8" t="n">
-        <v>0.585618346063237</v>
+        <v>0.8870094727656413</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +636,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9288378704628706</v>
+        <v>0.9332058938447173</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9245225101280167</v>
+        <v>0.9301425442239368</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9177803988493549</v>
+        <v>0.9303999367220929</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9223840085295376</v>
+        <v>0.9303429377293169</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9221107323295701</v>
+        <v>0.9299285874670077</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9212936302831484</v>
+        <v>0.930038082599511</v>
       </c>
     </row>
     <row r="10">
@@ -659,22 +659,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1639875686949215</v>
+        <v>0.1667000675842459</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1232574422194517</v>
+        <v>0.1296013445118074</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1192166244837796</v>
+        <v>0.1219538445205427</v>
       </c>
       <c r="E10" t="n">
-        <v>0.116614945570587</v>
+        <v>0.1245317501416366</v>
       </c>
       <c r="F10" t="n">
-        <v>0.116894045580943</v>
+        <v>0.123755663934166</v>
       </c>
       <c r="G10" t="n">
-        <v>0.117110036403394</v>
+        <v>0.1225556229374693</v>
       </c>
     </row>
     <row r="11">
@@ -682,22 +682,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5318720538720538</v>
+        <v>0.7250113804713808</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4998666028744397</v>
+        <v>0.7179924152749679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5071514103584583</v>
+        <v>0.7033859096009307</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5043840062943622</v>
+        <v>0.7000776512938002</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5000187008318311</v>
+        <v>0.7019450741719591</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5063683499400937</v>
+        <v>0.7007696978894299</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +705,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3266591112591113</v>
+        <v>0.5056622255032549</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3295493284721382</v>
+        <v>0.5519436339192703</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3325195968492058</v>
+        <v>0.5679328746892834</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3272438540223954</v>
+        <v>0.5703606808199194</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3247710639609261</v>
+        <v>0.5730924221381343</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3246171743962406</v>
+        <v>0.5739451480073641</v>
       </c>
     </row>
     <row r="13">
@@ -728,22 +728,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3497526390276391</v>
+        <v>0.5034662100704045</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3407939112733218</v>
+        <v>0.53233669147781</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3321606766331536</v>
+        <v>0.5436516709856393</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3318757666343384</v>
+        <v>0.5532732307128291</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3341953097208832</v>
+        <v>0.5563381033883068</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3297263092080632</v>
+        <v>0.5590329891352136</v>
       </c>
     </row>
     <row r="14">
@@ -751,22 +751,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5015723924223924</v>
+        <v>0.558341686945665</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5200574049885386</v>
+        <v>0.613999344812491</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5200907436218504</v>
+        <v>0.638195834455811</v>
       </c>
       <c r="E14" t="n">
-        <v>0.523738593584644</v>
+        <v>0.6380007090271463</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5220435165757967</v>
+        <v>0.6436598812325197</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5221850799598077</v>
+        <v>0.6432098581864111</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2588252698826229</v>
+        <v>0.5785907234686148</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2067957824044537</v>
+        <v>0.5732271031726829</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2087704020436909</v>
+        <v>0.5764059069534953</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2058881592207449</v>
+        <v>0.5818492877588731</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2055338340348204</v>
+        <v>0.5811621571134961</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2045296625097663</v>
+        <v>0.5814226495206076</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +797,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6767371486538152</v>
+        <v>0.8832974942867585</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6457817661490129</v>
+        <v>0.912053319153974</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6570327378807376</v>
+        <v>0.9116891904776284</v>
       </c>
       <c r="E16" t="n">
-        <v>0.649011726880341</v>
+        <v>0.911522510552045</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6428690885907409</v>
+        <v>0.910636867623287</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6408852514620266</v>
+        <v>0.9132615908931191</v>
       </c>
     </row>
     <row r="17">
@@ -820,22 +820,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6940126732200261</v>
+        <v>0.9141920636077601</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6766571409873778</v>
+        <v>0.9108718759802908</v>
       </c>
       <c r="D17" t="n">
-        <v>0.684937141784535</v>
+        <v>0.9161924126483881</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6834542011145309</v>
+        <v>0.9168121755326207</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6848393275187141</v>
+        <v>0.9144052852956047</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6832983568191076</v>
+        <v>0.9150663175947672</v>
       </c>
     </row>
     <row r="18">
@@ -843,22 +843,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2048349693607047</v>
+        <v>0.3050640814080004</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1823436814265538</v>
+        <v>0.2847352577157717</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1753184308508152</v>
+        <v>0.2852282569521808</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1727336213588672</v>
+        <v>0.2818018058138088</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1742540997033734</v>
+        <v>0.2817857901513648</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1754836066573411</v>
+        <v>0.2797210713027446</v>
       </c>
     </row>
     <row r="19">
@@ -866,22 +866,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2799565166315166</v>
+        <v>0.5381136988664924</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2547408390933093</v>
+        <v>0.5239924017910174</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2519916971273968</v>
+        <v>0.529183613628224</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2575668656827412</v>
+        <v>0.5336759836534996</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2577250546152952</v>
+        <v>0.5260744495354349</v>
       </c>
       <c r="G19" t="n">
-        <v>0.258923513932342</v>
+        <v>0.527920997028982</v>
       </c>
     </row>
     <row r="20">
@@ -889,22 +889,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2697717309145879</v>
+        <v>0.5668486665591167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2322366169282314</v>
+        <v>0.5513984652466425</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2432534212017815</v>
+        <v>0.5623903087905312</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2420928940937252</v>
+        <v>0.5654776169229178</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2342780349034855</v>
+        <v>0.5657742884844373</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2383530644545595</v>
+        <v>0.5627725423375898</v>
       </c>
     </row>
     <row r="21">
@@ -912,22 +912,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4788924191549194</v>
+        <v>0.8297563775589158</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4888770204732814</v>
+        <v>0.8269506103000281</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4736273290941244</v>
+        <v>0.8392196496629598</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4793166463742171</v>
+        <v>0.8411775924591661</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4804756241940572</v>
+        <v>0.8419109395343413</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4774347918697531</v>
+        <v>0.8413367505880704</v>
       </c>
     </row>
     <row r="22">
@@ -935,22 +935,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.826312950937951</v>
+        <v>0.9183742727860371</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8323780477141246</v>
+        <v>0.9206970442401987</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8261902070239374</v>
+        <v>0.9290162929110319</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8321511754189743</v>
+        <v>0.9305431983978918</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8381008457296116</v>
+        <v>0.9302870284756759</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8392982827494307</v>
+        <v>0.9306821075596836</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +958,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1984699868959157</v>
+        <v>0.3178319775638963</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1448044462946805</v>
+        <v>0.305166639617357</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1472018505781154</v>
+        <v>0.3040192236162784</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1475590165602352</v>
+        <v>0.3048294480062952</v>
       </c>
       <c r="F23" t="n">
-        <v>0.144378930087077</v>
+        <v>0.3050795838114739</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1449112627055645</v>
+        <v>0.3071240190358276</v>
       </c>
     </row>
     <row r="24">
@@ -981,22 +981,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6820604895104894</v>
+        <v>0.9450379046879049</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6780693846692681</v>
+        <v>0.9448497978790289</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6826972629664415</v>
+        <v>0.9463482296338802</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6622751230760399</v>
+        <v>0.9456202517193382</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6652665928026678</v>
+        <v>0.944393219554873</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6639886680916439</v>
+        <v>0.9433477307802616</v>
       </c>
     </row>
     <row r="25">
@@ -1004,22 +1004,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4920562114900351</v>
+        <v>0.8448185568570866</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4945628244945187</v>
+        <v>0.8440758623612037</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4907311981675279</v>
+        <v>0.8524155898818874</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4872281013663379</v>
+        <v>0.8559172662548731</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4932696512589348</v>
+        <v>0.8535984520581704</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4887783949014809</v>
+        <v>0.8524154480234161</v>
       </c>
     </row>
     <row r="26">
@@ -1027,22 +1027,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2909930700018936</v>
+        <v>0.3215708451906715</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2567278107064118</v>
+        <v>0.3174419551833985</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2528823164879</v>
+        <v>0.3166148279520348</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2469528450543046</v>
+        <v>0.3167616127127215</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2529534426011313</v>
+        <v>0.3164673086210377</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2517520490063461</v>
+        <v>0.3167808036338107</v>
       </c>
     </row>
     <row r="27">
@@ -1050,22 +1050,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.35263825988826</v>
+        <v>0.5780306978533443</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3303361338556951</v>
+        <v>0.5690720764389383</v>
       </c>
       <c r="D27" t="n">
-        <v>0.32585253519409</v>
+        <v>0.5729677243096507</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3294476322207379</v>
+        <v>0.5691443484536959</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3295145137739667</v>
+        <v>0.5694945958517954</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3289862411287761</v>
+        <v>0.5686586828084722</v>
       </c>
     </row>
     <row r="28">
@@ -1073,22 +1073,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2574786065786066</v>
+        <v>0.6472803854815348</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2367956725911166</v>
+        <v>0.6313829430415676</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2344318809433301</v>
+        <v>0.6314382160677702</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2320978478871768</v>
+        <v>0.630304946372663</v>
       </c>
       <c r="F28" t="n">
-        <v>0.227135780741388</v>
+        <v>0.6262421465290344</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2304444418524701</v>
+        <v>0.6264997091220014</v>
       </c>
     </row>
     <row r="29">
@@ -1096,22 +1096,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.618383916083916</v>
+        <v>0.9039431438702339</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6010963159396711</v>
+        <v>0.8964751952630013</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5931842979992127</v>
+        <v>0.89610543194985</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5981237214295065</v>
+        <v>0.8966037036427938</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5965325426158463</v>
+        <v>0.8972775152839793</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5981179236320768</v>
+        <v>0.8961348811994685</v>
       </c>
     </row>
     <row r="30">
@@ -1119,22 +1119,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7932290890639573</v>
+        <v>0.9418886005878654</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7750763519429182</v>
+        <v>0.9406142057764441</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7776953953702451</v>
+        <v>0.9398409358606581</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7789678644818966</v>
+        <v>0.9390247110072251</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7776499138203654</v>
+        <v>0.9389280287338246</v>
       </c>
       <c r="G30" t="n">
-        <v>0.777565793147634</v>
+        <v>0.938809871161702</v>
       </c>
     </row>
     <row r="31">
@@ -1142,22 +1142,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.197402191265978</v>
+        <v>0.2150907320363809</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1609788384847343</v>
+        <v>0.1765781106941195</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1558031669285343</v>
+        <v>0.1720038323869034</v>
       </c>
       <c r="E31" t="n">
-        <v>0.159417366483621</v>
+        <v>0.1747068057674188</v>
       </c>
       <c r="F31" t="n">
-        <v>0.158627086701926</v>
+        <v>0.1717573941490044</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1578704485692546</v>
+        <v>0.1713252811267935</v>
       </c>
     </row>
     <row r="32">
@@ -1165,22 +1165,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.415534001184001</v>
+        <v>0.4084545312675704</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3900521066631235</v>
+        <v>0.3497613992868552</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3957096872353228</v>
+        <v>0.3519068444185454</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4026813490063635</v>
+        <v>0.354750958379577</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4001773331510043</v>
+        <v>0.3579692258037811</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3988033841024411</v>
+        <v>0.353764903902398</v>
       </c>
     </row>
     <row r="33">
@@ -1188,22 +1188,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.278905584759156</v>
+        <v>0.4351007307067475</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2341806995930588</v>
+        <v>0.474871434112884</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2414858277820703</v>
+        <v>0.4862220401529331</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2381154577191273</v>
+        <v>0.4918083868525403</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2343372966651167</v>
+        <v>0.4921243314488346</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2352668365303411</v>
+        <v>0.4912516804674157</v>
       </c>
     </row>
     <row r="34">
@@ -1211,22 +1211,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3743768051120993</v>
+        <v>0.6142823564662024</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4082114636925618</v>
+        <v>0.6330404911244331</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4009069657641184</v>
+        <v>0.6399990038604507</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4032199265810179</v>
+        <v>0.6542637070187928</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4008251558811582</v>
+        <v>0.655608344719359</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4042393771074304</v>
+        <v>0.6549527306767593</v>
       </c>
     </row>
     <row r="35">
@@ -1234,22 +1234,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6090803770303773</v>
+        <v>0.7333470076562285</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6637781246648627</v>
+        <v>0.7813366339987863</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6650693920656523</v>
+        <v>0.7927003990044482</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6590107406348088</v>
+        <v>0.8019425169335463</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6670363357941775</v>
+        <v>0.8068107998991523</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6632843271426314</v>
+        <v>0.8060371658011052</v>
       </c>
     </row>
     <row r="36">
@@ -1257,22 +1257,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2270211732711731</v>
+        <v>0.437620430941219</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1778795814518456</v>
+        <v>0.4193572548429069</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1762137997688794</v>
+        <v>0.4278081003521785</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1752204217232006</v>
+        <v>0.4324982391102751</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1694484118531768</v>
+        <v>0.4332322667567375</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1720161929979262</v>
+        <v>0.4325392927487755</v>
       </c>
     </row>
     <row r="37">
@@ -1280,22 +1280,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.713353465053465</v>
+        <v>0.8812068953541011</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6662540007864848</v>
+        <v>0.8918643459652021</v>
       </c>
       <c r="D37" t="n">
-        <v>0.660874900855054</v>
+        <v>0.8912017964494792</v>
       </c>
       <c r="E37" t="n">
-        <v>0.663594054429866</v>
+        <v>0.8976071961024817</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6618501951506964</v>
+        <v>0.8973751442887538</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6670341635010787</v>
+        <v>0.8967149886410243</v>
       </c>
     </row>
     <row r="38">
@@ -1303,22 +1303,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.624215361871244</v>
+        <v>0.8835093895810072</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6084455523469693</v>
+        <v>0.8940613827718527</v>
       </c>
       <c r="D38" t="n">
-        <v>0.600253871420016</v>
+        <v>0.8862147125636534</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5953810005557653</v>
+        <v>0.8903470157433934</v>
       </c>
       <c r="F38" t="n">
-        <v>0.596924973830093</v>
+        <v>0.8935172345183283</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5964741802276412</v>
+        <v>0.8936288451893645</v>
       </c>
     </row>
     <row r="39">
@@ -1326,22 +1326,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2819786480268098</v>
+        <v>0.2712934050244035</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2500064680971406</v>
+        <v>0.2524790339333615</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2409162663757521</v>
+        <v>0.2574639825962045</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2490653074508385</v>
+        <v>0.2574604793335079</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2474628633303666</v>
+        <v>0.2599400305622552</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2444873015096718</v>
+        <v>0.2588195172134053</v>
       </c>
     </row>
     <row r="40">
@@ -1349,22 +1349,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3155151006401004</v>
+        <v>0.5683529489954487</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3000751562535457</v>
+        <v>0.5587104810820317</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2874255380962481</v>
+        <v>0.5483590798113297</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2935667178909783</v>
+        <v>0.5527343941995491</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2886909350227467</v>
+        <v>0.5544826871642378</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2944824786219074</v>
+        <v>0.5552318580436101</v>
       </c>
     </row>
     <row r="41">
@@ -1372,22 +1372,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2736760239760239</v>
+        <v>0.594672205564187</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2208053857395877</v>
+        <v>0.5862924280501012</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2187224390735053</v>
+        <v>0.5865546202996308</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2163809506978099</v>
+        <v>0.5893097977319574</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2187345927960782</v>
+        <v>0.5890992201995375</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2205211713163049</v>
+        <v>0.5865941851473179</v>
       </c>
     </row>
     <row r="42">
@@ -1395,22 +1395,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5624348040848041</v>
+        <v>0.864722653225401</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5480207220146321</v>
+        <v>0.8579348247090072</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5441743845655553</v>
+        <v>0.859123980455992</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5506557244833177</v>
+        <v>0.8634107076236728</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5448579518562564</v>
+        <v>0.8610600596056249</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5419798783215013</v>
+        <v>0.8598178447294147</v>
       </c>
     </row>
     <row r="43">
@@ -1418,22 +1418,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8281449517802461</v>
+        <v>0.9371048834934129</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8381630932024676</v>
+        <v>0.9400208099199011</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8427138451375291</v>
+        <v>0.9419507215607243</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8365752666010713</v>
+        <v>0.9414491811183737</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8399846453778572</v>
+        <v>0.9441501362086242</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8398623516147652</v>
+        <v>0.943978663728064</v>
       </c>
     </row>
     <row r="44">
@@ -1441,22 +1441,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1876285190435925</v>
+        <v>0.2068329381937421</v>
       </c>
       <c r="C44" t="n">
-        <v>0.142959098031898</v>
+        <v>0.1668547903338718</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1317729246544137</v>
+        <v>0.1662059657779021</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1339693010555044</v>
+        <v>0.1697680016368361</v>
       </c>
       <c r="F44" t="n">
-        <v>0.131724066864071</v>
+        <v>0.1710321756998018</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1321113811579641</v>
+        <v>0.1702662865178808</v>
       </c>
     </row>
     <row r="45">
@@ -1464,22 +1464,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5778239778739779</v>
+        <v>0.8920973626373624</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5655669734850158</v>
+        <v>0.8769543556745083</v>
       </c>
       <c r="D45" t="n">
-        <v>0.557835014050115</v>
+        <v>0.8852122935133955</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5475335714129768</v>
+        <v>0.880793774815411</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5500136796186177</v>
+        <v>0.8761638740257558</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5520274234611273</v>
+        <v>0.877021500472011</v>
       </c>
     </row>
     <row r="46">
@@ -1487,22 +1487,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3848935803031391</v>
+        <v>0.6741441113026407</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3752956776485533</v>
+        <v>0.6801390035770194</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3672174739960201</v>
+        <v>0.6849362986010487</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3699979193117753</v>
+        <v>0.6832895265753238</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3649051940643051</v>
+        <v>0.6873581277268357</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3700322729719911</v>
+        <v>0.6887454701012741</v>
       </c>
     </row>
     <row r="47">
@@ -1510,22 +1510,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3039213721463722</v>
+        <v>0.5264017451782572</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2935115920534065</v>
+        <v>0.5233279655525535</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2762184259622991</v>
+        <v>0.5199275149698299</v>
       </c>
       <c r="E47" t="n">
-        <v>0.280366213962824</v>
+        <v>0.5237588904851072</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2822810740389676</v>
+        <v>0.5265567816543496</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2842614553879071</v>
+        <v>0.5262831594922225</v>
       </c>
     </row>
     <row r="48">
@@ -1533,22 +1533,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4398325757575758</v>
+        <v>0.5958056393675125</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4349719757683585</v>
+        <v>0.586212909972978</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4206636607932359</v>
+        <v>0.5856482008364817</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4268467683886554</v>
+        <v>0.5897806773664678</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4323903955449523</v>
+        <v>0.5955599974576097</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4314231806114939</v>
+        <v>0.5953049892804728</v>
       </c>
     </row>
     <row r="49">
@@ -1556,22 +1556,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2321523282273282</v>
+        <v>0.6164488860222453</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2007389266919144</v>
+        <v>0.606883005499915</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1956030969566623</v>
+        <v>0.6124472011264886</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1943949736003722</v>
+        <v>0.6081785823023427</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1940576816733622</v>
+        <v>0.6085444465520539</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1949640877256842</v>
+        <v>0.6084339883727135</v>
       </c>
     </row>
     <row r="50">
@@ -1579,22 +1579,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6371572631072633</v>
+        <v>0.9168290736897542</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6216203977276643</v>
+        <v>0.9109238304854951</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6192746930317494</v>
+        <v>0.914952181593441</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6180404077219448</v>
+        <v>0.9145627377619016</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6212654741342242</v>
+        <v>0.9135772186052471</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6174782664164501</v>
+        <v>0.9134504342466653</v>
       </c>
     </row>
     <row r="51">
@@ -1602,22 +1602,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7658911021168372</v>
+        <v>0.9302755007737359</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7627378061890344</v>
+        <v>0.9271717496434674</v>
       </c>
       <c r="D51" t="n">
-        <v>0.764144345652127</v>
+        <v>0.9265563760476625</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7655948690799154</v>
+        <v>0.9268730376745969</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7631785461766001</v>
+        <v>0.9266216157330903</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7633060675045462</v>
+        <v>0.9264731087984006</v>
       </c>
     </row>
   </sheetData>
